--- a/Data/Nephilim Xenotype - 2997308585/Nephilim Xenotype - 2997308585.xlsx
+++ b/Data/Nephilim Xenotype - 2997308585/Nephilim Xenotype - 2997308585.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Sovereign's mod\Nephilim Xenotype - 2997308585\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\RMK\Data\Nephilim Xenotype - 2997308585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F6097-D046-4A6C-8D4B-CD85AF56411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D21342-F452-445B-A6E5-C6ECBE79C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="913">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1140,32 +1140,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>firstNamePrefix-&gt;Auri</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아우리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.2</t>
   </si>
   <si>
@@ -1185,19 +1159,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>셀레스티</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.3</t>
   </si>
   <si>
@@ -1207,19 +1168,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엘리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.4</t>
   </si>
   <si>
@@ -1229,19 +1177,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제피</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.5</t>
   </si>
   <si>
@@ -1251,19 +1186,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>루미시</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.6</t>
   </si>
   <si>
@@ -1273,19 +1195,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.7</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에테리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.7</t>
   </si>
   <si>
@@ -1295,19 +1204,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.8</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>디비</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.8</t>
   </si>
   <si>
@@ -1317,19 +1213,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.9</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>라디</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.9</t>
   </si>
   <si>
@@ -1339,19 +1222,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.10</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하모니</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.10</t>
   </si>
   <si>
@@ -1361,19 +1231,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.11</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에쏘리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.11</t>
   </si>
   <si>
@@ -1383,19 +1240,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.12</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아스트리시</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.12</t>
   </si>
   <si>
@@ -1405,19 +1249,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.13</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>세레니</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.13</t>
   </si>
   <si>
@@ -1427,19 +1258,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.14</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>트란키</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.14</t>
   </si>
   <si>
@@ -1449,19 +1267,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.15</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>셀루미</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.15</t>
   </si>
   <si>
@@ -1471,19 +1276,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.16</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지오니</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.16</t>
   </si>
   <si>
@@ -1493,19 +1285,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.17</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엘리오니</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.17</t>
   </si>
   <si>
@@ -1515,19 +1294,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.18</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아우루미</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.18</t>
   </si>
   <si>
@@ -1537,19 +1303,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.19</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>루미나리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.19</t>
   </si>
   <si>
@@ -1559,19 +1312,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.20</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>넥시</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.20</t>
   </si>
   <si>
@@ -1581,19 +1321,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.21</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아리아</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.21</t>
   </si>
   <si>
@@ -1603,19 +1330,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.22</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제피리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.22</t>
   </si>
   <si>
@@ -1625,19 +1339,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.23</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아우로라</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.23</t>
   </si>
   <si>
@@ -1647,19 +1348,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.24</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>세라피</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.24</t>
   </si>
   <si>
@@ -1669,19 +1357,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.25</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아주리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.25</t>
   </si>
   <si>
@@ -1691,19 +1366,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.26</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에고리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.26</t>
   </si>
   <si>
@@ -1713,19 +1375,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.27</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하모닉시</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.27</t>
   </si>
   <si>
@@ -1735,19 +1384,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.28</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에테레오니</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.28</t>
   </si>
   <si>
@@ -1757,19 +1393,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.29</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>젠토리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.29</t>
   </si>
   <si>
@@ -1779,19 +1402,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.30</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>셀레스티시</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.30</t>
   </si>
   <si>
@@ -1801,41 +1411,12 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.31</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>루미아</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.31</t>
   </si>
   <si>
-    <t>firstNameSuffix-&gt;el</t>
-  </si>
-  <si>
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.32</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>엘</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.32</t>
   </si>
   <si>
@@ -1845,19 +1426,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.33</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>우스</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.33</t>
   </si>
   <si>
@@ -1867,19 +1435,6 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.34</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아라</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.34</t>
   </si>
   <si>
@@ -1887,19 +1442,6 @@
   </si>
   <si>
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.35</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에온</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.35</t>
@@ -2874,9 +2416,6 @@
     <t>yellow-eyed</t>
   </si>
   <si>
-    <t>GeneDef: GS_Eyes_Yellowy.labelShortAdj 'yellow-eyed'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2899,9 +2438,6 @@
     <t>은총을 제공합니다.</t>
   </si>
   <si>
-    <t>GeneDef: Grace.customEffectDescriptions.0 'Gives grace supply.'</t>
-  </si>
-  <si>
     <t>Grace.resourceDescription</t>
   </si>
   <si>
@@ -2911,22 +2447,13 @@
     <t>다양한 방법으로 획득하고 사용할 수 있는 신성한 힘의 비축량입니다.\n\n은총은 사람을 구하는 등의 착한 행동을 통해 얻을 수 있습니다. 또는 은총 팩을 가진 사람을 죽이는 것과 같은 비열한 행동으로 얻을 수도 있습니다. 여러분의 선택에 달렸습니다.</t>
   </si>
   <si>
-    <t>GeneDef: Grace.resourceDescription 'A reserve of holy strength which can be gained and spent in a variety of ways.\n\nGrace is gained by performing nice actions like saving people. Or mean actions like killing people who have Grace packs. Your choice.'</t>
-  </si>
-  <si>
     <t>Grace.resourceLabel</t>
   </si>
   <si>
-    <t>GeneDef: Grace.resourceLabel 'grace'</t>
-  </si>
-  <si>
     <t>GraceDrain.labelShortAdj</t>
   </si>
   <si>
     <t>draining</t>
-  </si>
-  <si>
-    <t>GeneDef: GraceDrain.labelShortAdj 'draining'</t>
   </si>
   <si>
     <r>
@@ -2948,13 +2475,7 @@
     <t>GraceRegeneration.labelShortAdj</t>
   </si>
   <si>
-    <t>GeneDef: GraceDrain.resourceLabel 'grace'</t>
-  </si>
-  <si>
     <t>regenerating</t>
-  </si>
-  <si>
-    <t>GeneDef: GraceRegeneration.labelShortAdj 'regenerating'</t>
   </si>
   <si>
     <r>
@@ -2976,13 +2497,7 @@
     <t>Nephilim.descriptionShort</t>
   </si>
   <si>
-    <t>GeneDef: GraceRegeneration.resourceLabel 'grace'</t>
-  </si>
-  <si>
     <t>With unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.</t>
-  </si>
-  <si>
-    <t>XenotypeDef: Nephilim.descriptionShort 'With unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.'</t>
   </si>
   <si>
     <r>
@@ -3871,14 +3386,155 @@
     <t>열광의 사제모</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>firstNameSuffix-&gt;el</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;Auri</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아우리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;셀레스티</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;엘리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;제피</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;루미시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;에테리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;디비</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;라디</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;하모니</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;에쏘리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아스트리시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;세레니</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;트란키</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;셀루미</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;지오니</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;엘리오니</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아우루미</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;루미나리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;넥시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아리아</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;제피리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아우로라</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;세라피</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;아주리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;에고리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;하모닉시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;에테레오니</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;젠토리</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;셀레스티시</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNamePrefix-&gt;루미아</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNameSuffix-&gt;엘</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNameSuffix-&gt;우스</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNameSuffix-&gt;아라</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstNameSuffix-&gt;에온</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;firstNamePrefix-&gt;&quot;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3952,8 +3608,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4258,8 +3914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4272,7 +3928,7 @@
     <col min="6" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4292,7 +3948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4311,12 +3967,8 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="e">
-        <f>VLOOKUP(A2,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4335,12 +3987,8 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="e">
-        <f>VLOOKUP(A3,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4359,12 +4007,8 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="e">
-        <f>VLOOKUP(A4,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4383,12 +4027,8 @@
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="e">
-        <f>VLOOKUP(A5,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4404,12 +4044,8 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="e">
-        <f>VLOOKUP(A6,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4425,12 +4061,8 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="e">
-        <f>VLOOKUP(A7,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -4446,12 +4078,8 @@
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="e">
-        <f>VLOOKUP(A8,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4467,12 +4095,8 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="e">
-        <f>VLOOKUP(A9,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -4488,12 +4112,8 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="e">
-        <f>VLOOKUP(A10,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4509,12 +4129,8 @@
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" t="e">
-        <f>VLOOKUP(A11,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4530,12 +4146,8 @@
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G12" t="e">
-        <f>VLOOKUP(A12,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -4551,12 +4163,8 @@
       <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="e">
-        <f>VLOOKUP(A13,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -4572,12 +4180,8 @@
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="e">
-        <f>VLOOKUP(A14,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -4593,12 +4197,8 @@
       <c r="E15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G15" t="e">
-        <f>VLOOKUP(A15,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -4614,12 +4214,8 @@
       <c r="E16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G16" t="e">
-        <f>VLOOKUP(A16,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,12 +4231,8 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="e">
-        <f>VLOOKUP(A17,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -4656,12 +4248,8 @@
       <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="e">
-        <f>VLOOKUP(A18,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4677,12 +4265,8 @@
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G19" t="e">
-        <f>VLOOKUP(A19,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -4698,12 +4282,8 @@
       <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G20" t="e">
-        <f>VLOOKUP(A20,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -4719,12 +4299,8 @@
       <c r="E21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G21" t="e">
-        <f>VLOOKUP(A21,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -4740,12 +4316,8 @@
       <c r="E22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G22" t="e">
-        <f>VLOOKUP(A22,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -4761,12 +4333,8 @@
       <c r="E23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G23" t="e">
-        <f>VLOOKUP(A23,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4782,12 +4350,8 @@
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G24" t="e">
-        <f>VLOOKUP(A24,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -4803,12 +4367,8 @@
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G25" t="e">
-        <f>VLOOKUP(A25,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4824,12 +4384,8 @@
       <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G26" t="e">
-        <f>VLOOKUP(A26,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -4845,12 +4401,8 @@
       <c r="E27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G27" t="e">
-        <f>VLOOKUP(A27,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -4866,12 +4418,8 @@
       <c r="E28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G28" t="e">
-        <f>VLOOKUP(A28,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
@@ -4887,12 +4435,8 @@
       <c r="E29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G29" t="e">
-        <f>VLOOKUP(A29,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -4908,12 +4452,8 @@
       <c r="E30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G30" t="e">
-        <f>VLOOKUP(A30,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -4929,12 +4469,8 @@
       <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G31" t="e">
-        <f>VLOOKUP(A31,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -4950,12 +4486,8 @@
       <c r="E32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G32" t="e">
-        <f>VLOOKUP(A32,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -4971,12 +4503,8 @@
       <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G33" t="e">
-        <f>VLOOKUP(A33,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -4992,12 +4520,8 @@
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G34" t="e">
-        <f>VLOOKUP(A34,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -5013,12 +4537,8 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" t="e">
-        <f>VLOOKUP(A35,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -5034,12 +4554,8 @@
       <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G36" t="e">
-        <f>VLOOKUP(A36,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -5055,12 +4571,8 @@
       <c r="E37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G37" t="e">
-        <f>VLOOKUP(A37,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -5076,12 +4588,8 @@
       <c r="E38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G38" t="e">
-        <f>VLOOKUP(A38,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -5097,12 +4605,8 @@
       <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G39" t="e">
-        <f>VLOOKUP(A39,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
@@ -5118,12 +4622,8 @@
       <c r="E40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G40" t="e">
-        <f>VLOOKUP(A40,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>159</v>
       </c>
@@ -5139,12 +4639,8 @@
       <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" t="e">
-        <f>VLOOKUP(A41,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -5160,12 +4656,8 @@
       <c r="E42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G42" t="e">
-        <f>VLOOKUP(A42,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -5181,12 +4673,8 @@
       <c r="E43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G43" t="e">
-        <f>VLOOKUP(A43,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -5202,12 +4690,8 @@
       <c r="E44" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G44" t="e">
-        <f>VLOOKUP(A44,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
@@ -5223,12 +4707,8 @@
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G45" t="e">
-        <f>VLOOKUP(A45,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
@@ -5244,12 +4724,8 @@
       <c r="E46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G46" t="e">
-        <f>VLOOKUP(A46,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -5265,12 +4741,8 @@
       <c r="E47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G47" t="e">
-        <f>VLOOKUP(A47,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>184</v>
       </c>
@@ -5286,12 +4758,8 @@
       <c r="E48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G48" t="e">
-        <f>VLOOKUP(A48,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -5307,12 +4775,8 @@
       <c r="E49" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G49" t="e">
-        <f>VLOOKUP(A49,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
@@ -5328,12 +4792,8 @@
       <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G50" t="e">
-        <f>VLOOKUP(A50,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>195</v>
       </c>
@@ -5349,12 +4809,8 @@
       <c r="E51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G51" t="e">
-        <f>VLOOKUP(A51,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
@@ -5370,12 +4826,8 @@
       <c r="E52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G52" t="e">
-        <f>VLOOKUP(A52,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>204</v>
       </c>
@@ -5391,12 +4843,8 @@
       <c r="E53" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G53" t="e">
-        <f>VLOOKUP(A53,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
@@ -5412,12 +4860,8 @@
       <c r="E54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G54" t="e">
-        <f>VLOOKUP(A54,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>212</v>
       </c>
@@ -5433,12 +4877,8 @@
       <c r="E55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G55" t="e">
-        <f>VLOOKUP(A55,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -5454,12 +4894,8 @@
       <c r="E56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G56" t="e">
-        <f>VLOOKUP(A56,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -5475,12 +4911,8 @@
       <c r="E57" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G57" t="e">
-        <f>VLOOKUP(A57,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>222</v>
       </c>
@@ -5496,12 +4928,8 @@
       <c r="E58" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G58" t="e">
-        <f>VLOOKUP(A58,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -5517,12 +4945,8 @@
       <c r="E59" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G59" t="e">
-        <f>VLOOKUP(A59,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -5538,12 +4962,8 @@
       <c r="E60" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G60" t="e">
-        <f>VLOOKUP(A60,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>235</v>
       </c>
@@ -5559,12 +4979,8 @@
       <c r="E61" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G61" t="e">
-        <f>VLOOKUP(A61,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
@@ -5580,12 +4996,8 @@
       <c r="E62" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G62" t="e">
-        <f>VLOOKUP(A62,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>244</v>
       </c>
@@ -5601,12 +5013,8 @@
       <c r="E63" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G63" t="e">
-        <f>VLOOKUP(A63,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>247</v>
       </c>
@@ -5622,12 +5030,8 @@
       <c r="E64" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G64" t="e">
-        <f>VLOOKUP(A64,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>251</v>
       </c>
@@ -5643,12 +5047,8 @@
       <c r="E65" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G65" t="e">
-        <f>VLOOKUP(A65,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>254</v>
       </c>
@@ -5664,12 +5064,8 @@
       <c r="E66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G66" t="e">
-        <f>VLOOKUP(A66,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>259</v>
       </c>
@@ -5685,12 +5081,8 @@
       <c r="E67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G67" t="e">
-        <f>VLOOKUP(A67,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>261</v>
       </c>
@@ -5700,18 +5092,14 @@
       <c r="C68" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>649</v>
+      <c r="D68" s="5" t="s">
+        <v>604</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G68" t="e">
-        <f>VLOOKUP(A68,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
@@ -5721,18 +5109,14 @@
       <c r="C69" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G69" t="e">
-        <f>VLOOKUP(A69,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
@@ -5748,12 +5132,8 @@
       <c r="E70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G70" t="e">
-        <f>VLOOKUP(A70,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>270</v>
       </c>
@@ -5769,12 +5149,8 @@
       <c r="E71" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G71" t="e">
-        <f>VLOOKUP(A71,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>272</v>
       </c>
@@ -5790,12 +5166,8 @@
       <c r="E72" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G72" t="e">
-        <f>VLOOKUP(A72,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>275</v>
       </c>
@@ -5811,12 +5183,8 @@
       <c r="E73" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G73" t="e">
-        <f>VLOOKUP(A73,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
@@ -5832,12 +5200,8 @@
       <c r="E74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G74" t="e">
-        <f>VLOOKUP(A74,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>280</v>
       </c>
@@ -5853,12 +5217,8 @@
       <c r="E75" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G75" t="e">
-        <f>VLOOKUP(A75,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>282</v>
       </c>
@@ -5874,12 +5234,8 @@
       <c r="E76" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G76" t="e">
-        <f>VLOOKUP(A76,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>287</v>
       </c>
@@ -5895,12 +5251,8 @@
       <c r="E77" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G77" t="e">
-        <f>VLOOKUP(A77,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -5911,17 +5263,13 @@
         <v>291</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G78" t="e">
-        <f>VLOOKUP(A78,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>292</v>
       </c>
@@ -5929,1495 +5277,1211 @@
         <v>284</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" t="e">
-        <f>VLOOKUP(A79,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G80" t="e">
-        <f>VLOOKUP(A80,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" t="e">
-        <f>VLOOKUP(A81,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G82" t="e">
-        <f>VLOOKUP(A82,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="G83" t="e">
-        <f>VLOOKUP(A83,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G84" t="e">
-        <f>VLOOKUP(A84,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G85" t="e">
-        <f>VLOOKUP(A85,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G86" t="e">
-        <f>VLOOKUP(A86,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G87" t="e">
-        <f>VLOOKUP(A87,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G88" t="e">
-        <f>VLOOKUP(A88,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G89" t="e">
-        <f>VLOOKUP(A89,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G90" t="e">
-        <f>VLOOKUP(A90,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G91" t="e">
-        <f>VLOOKUP(A91,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="G92" t="e">
-        <f>VLOOKUP(A92,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="G93" t="e">
-        <f>VLOOKUP(A93,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="G94" t="e">
-        <f>VLOOKUP(A94,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G95" t="e">
-        <f>VLOOKUP(A95,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G96" t="e">
-        <f>VLOOKUP(A96,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="G97" t="e">
-        <f>VLOOKUP(A97,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G98" t="e">
-        <f>VLOOKUP(A98,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="G99" t="e">
-        <f>VLOOKUP(A99,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G100" t="e">
-        <f>VLOOKUP(A100,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G101" t="e">
-        <f>VLOOKUP(A101,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G102" t="e">
-        <f>VLOOKUP(A102,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G103" t="e">
-        <f>VLOOKUP(A103,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G104" t="e">
-        <f>VLOOKUP(A104,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G105" t="e">
-        <f>VLOOKUP(A105,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="G106" t="e">
-        <f>VLOOKUP(A106,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G107" t="e">
-        <f>VLOOKUP(A107,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G108" t="e">
-        <f>VLOOKUP(A108,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G109" t="e">
-        <f>VLOOKUP(A109,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G110" t="e">
-        <f>VLOOKUP(A110,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G111" t="e">
-        <f>VLOOKUP(A111,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G112" t="e">
-        <f>VLOOKUP(A112,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="G113" t="e">
-        <f>VLOOKUP(A113,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G114" t="e">
-        <f>VLOOKUP(A114,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G115" t="e">
-        <f>VLOOKUP(A115,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G116" t="e">
-        <f>VLOOKUP(A116,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G117" t="e">
-        <f>VLOOKUP(A117,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>446</v>
+        <v>410</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G118" t="e">
-        <f>VLOOKUP(A118,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G119" t="e">
-        <f>VLOOKUP(A119,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G120" t="e">
-        <f>VLOOKUP(A120,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>460</v>
+        <v>424</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G121" t="e">
-        <f>VLOOKUP(A121,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G122" t="e">
-        <f>VLOOKUP(A122,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>469</v>
+        <v>433</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G123" t="e">
-        <f>VLOOKUP(A123,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>470</v>
+        <v>434</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G124" t="e">
-        <f>VLOOKUP(A124,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>476</v>
+        <v>440</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>477</v>
+        <v>441</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G125" t="e">
-        <f>VLOOKUP(A125,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>478</v>
+        <v>442</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>481</v>
+        <v>445</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G126" t="e">
-        <f>VLOOKUP(A126,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>482</v>
+        <v>446</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>484</v>
+        <v>448</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>485</v>
+        <v>449</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G127" t="e">
-        <f>VLOOKUP(A127,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>488</v>
+        <v>452</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>489</v>
+        <v>453</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G128" t="e">
-        <f>VLOOKUP(A128,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G129" t="e">
-        <f>VLOOKUP(A129,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="G130" t="e">
-        <f>VLOOKUP(A130,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G131" t="e">
-        <f>VLOOKUP(A131,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="G132" t="e">
-        <f>VLOOKUP(A132,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>508</v>
+        <v>472</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G133" t="e">
-        <f>VLOOKUP(A133,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G134" t="e">
-        <f>VLOOKUP(A134,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G135" t="e">
-        <f>VLOOKUP(A135,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>520</v>
+        <v>484</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G136" t="e">
-        <f>VLOOKUP(A136,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>522</v>
+        <v>486</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>524</v>
+        <v>488</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>525</v>
+        <v>489</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G137" t="e">
-        <f>VLOOKUP(A137,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>526</v>
+        <v>490</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G138" t="e">
-        <f>VLOOKUP(A138,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="G139" t="e">
-        <f>VLOOKUP(A139,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>534</v>
+        <v>498</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>537</v>
+        <v>501</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G140" t="e">
-        <f>VLOOKUP(A140,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>538</v>
+        <v>502</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="G141" t="e">
-        <f>VLOOKUP(A141,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>542</v>
+        <v>506</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>544</v>
+        <v>508</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>545</v>
+        <v>509</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G142" t="e">
-        <f>VLOOKUP(A142,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G143" t="e">
-        <f>VLOOKUP(A143,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G144" t="e">
-        <f>VLOOKUP(A144,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>554</v>
+        <v>518</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G145" t="e">
-        <f>VLOOKUP(A145,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>558</v>
+        <v>522</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>560</v>
+        <v>524</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>529</v>
+        <v>493</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G146" t="e">
-        <f>VLOOKUP(A146,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>562</v>
+        <v>526</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>561</v>
+        <v>525</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>563</v>
+        <v>527</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G147" t="e">
-        <f>VLOOKUP(A147,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>564</v>
+        <v>528</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="G148" t="e">
-        <f>VLOOKUP(A148,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>568</v>
+        <v>532</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>571</v>
+        <v>535</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="G149" t="e">
-        <f>VLOOKUP(A149,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>50</v>
@@ -7428,240 +6492,192 @@
       <c r="E150" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G150" t="e">
-        <f>VLOOKUP(A150,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D151" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="G151" t="e">
-        <f>VLOOKUP(A151,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G152" t="e">
-        <f>VLOOKUP(A152,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G153" t="e">
-        <f>VLOOKUP(A153,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G154" t="e">
-        <f>VLOOKUP(A154,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G155" t="e">
-        <f>VLOOKUP(A155,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="G156" t="e">
-        <f>VLOOKUP(A156,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G157" t="e">
-        <f>VLOOKUP(A157,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G158" t="e">
-        <f>VLOOKUP(A158,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G159" t="e">
-        <f>VLOOKUP(A159,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G160" t="e">
-        <f>VLOOKUP(A160,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="G161" t="e">
-        <f>VLOOKUP(A161,#REF!,2,FALSE)</f>
-        <v>#REF!</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -7669,20 +6685,17 @@
         <v>111</v>
       </c>
       <c r="C162" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D162" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="G162" t="s">
-        <v>621</v>
-      </c>
-      <c r="H162" t="str">
+        <v>585</v>
+      </c>
+      <c r="H162" t="e">
         <f>MID(G162,FIND("'",G162)+1,FIND("'",G162,FIND("'",G162)+1)-FIND("'",G162)-1)</f>
-        <v>yellow-eyed</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -7690,20 +6703,17 @@
         <v>111</v>
       </c>
       <c r="C163" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="D163" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="E163" t="s">
-        <v>625</v>
-      </c>
-      <c r="G163" t="s">
-        <v>626</v>
-      </c>
-      <c r="H163" t="str">
+        <v>588</v>
+      </c>
+      <c r="H163" t="e">
         <f>MID(G163,FIND("'",G163)+1,FIND("'",G163,FIND("'",G163)+1)-FIND("'",G163)-1)</f>
-        <v>Gives grace supply.</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -7711,20 +6721,17 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D164" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="E164" t="s">
-        <v>629</v>
-      </c>
-      <c r="G164" t="s">
-        <v>630</v>
-      </c>
-      <c r="H164" t="str">
+        <v>591</v>
+      </c>
+      <c r="H164" t="e">
         <f>MID(G164,FIND("'",G163)+1,FIND("'",G164,FIND("'",G163)+1)-FIND("'",G164)-1)</f>
-        <v>ve of holy strength which can be gained and spent in a variety of ways.\n\nGrace is gained by performing nice actions like saving people. Or mean actions like killing people who have Grace packs. Your choice.'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -7732,16 +6739,13 @@
         <v>111</v>
       </c>
       <c r="C165" t="s">
-        <v>631</v>
+        <v>592</v>
       </c>
       <c r="D165" t="s">
         <v>175</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G165" t="s">
-        <v>632</v>
       </c>
       <c r="H165" t="e">
         <f>MID(G165,FIND("'",G163)+1,FIND("'",G165,FIND("'",G163)+1)-FIND("'",G165)-1)</f>
@@ -7753,20 +6757,17 @@
         <v>111</v>
       </c>
       <c r="C166" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="D166" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="G166" t="s">
-        <v>635</v>
-      </c>
-      <c r="H166" t="str">
+        <v>595</v>
+      </c>
+      <c r="H166" t="e">
         <f>MID(G166,FIND("'",G163)+1,FIND("'",G166,FIND("'",G163)+1)-FIND("'",G166)-1)</f>
-        <v>'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -7774,16 +6775,13 @@
         <v>111</v>
       </c>
       <c r="C167" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="D167" t="s">
         <v>175</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G167" t="s">
-        <v>639</v>
       </c>
       <c r="H167" t="e">
         <f>MID(G167,FIND("'",G163)+1,FIND("'",G167,FIND("'",G163)+1)-FIND("'",G167)-1)</f>
@@ -7795,20 +6793,17 @@
         <v>111</v>
       </c>
       <c r="C168" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="D168" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G168" t="s">
-        <v>641</v>
-      </c>
-      <c r="H168" t="str">
+        <v>599</v>
+      </c>
+      <c r="H168" t="e">
         <f>MID(G168,FIND("'",G163)+1,FIND("'",G168,FIND("'",G163)+1)-FIND("'",G168)-1)</f>
-        <v>egenerating'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -7816,7 +6811,7 @@
         <v>111</v>
       </c>
       <c r="C169" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="D169" t="s">
         <v>175</v>
@@ -7824,12 +6819,9 @@
       <c r="E169" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G169" t="s">
-        <v>645</v>
-      </c>
-      <c r="H169" t="str">
+      <c r="H169" t="e">
         <f>MID(G169,FIND("'",G163)+1,FIND("'",G169,FIND("'",G163)+1)-FIND("'",G169)-1)</f>
-        <v>race'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -7837,1227 +6829,1224 @@
         <v>200</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>601</v>
       </c>
       <c r="D170" t="s">
-        <v>646</v>
+        <v>602</v>
       </c>
       <c r="E170" t="s">
-        <v>648</v>
-      </c>
-      <c r="G170" t="s">
-        <v>647</v>
-      </c>
-      <c r="H170" t="str">
+        <v>603</v>
+      </c>
+      <c r="H170" t="e">
         <f>MID(G170,FIND("'",G163)+1,FIND("'",G170,FIND("'",G163)+1)-FIND("'",G170)-1)</f>
-        <v>h unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.'</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="B172" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="C172" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="D172" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="E172" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>654</v>
+        <v>609</v>
       </c>
       <c r="B173" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C173" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="D173" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="E173" t="s">
-        <v>876</v>
+        <v>831</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="B174" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C174" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="D174" t="s">
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="E174" t="s">
-        <v>877</v>
+        <v>832</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="B175" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C175" t="s">
-        <v>662</v>
+        <v>617</v>
       </c>
       <c r="D175" t="s">
-        <v>663</v>
+        <v>618</v>
       </c>
       <c r="E175" t="s">
-        <v>878</v>
+        <v>833</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>664</v>
+        <v>619</v>
       </c>
       <c r="B176" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C176" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="D176" t="s">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="E176" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>667</v>
+        <v>622</v>
       </c>
       <c r="B177" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C177" t="s">
-        <v>668</v>
+        <v>623</v>
       </c>
       <c r="D177" t="s">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="E177" t="s">
-        <v>861</v>
+        <v>816</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>670</v>
+        <v>625</v>
       </c>
       <c r="B178" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C178" t="s">
-        <v>671</v>
+        <v>626</v>
       </c>
       <c r="D178" t="s">
-        <v>672</v>
+        <v>627</v>
       </c>
       <c r="E178" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="B179" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C179" t="s">
-        <v>674</v>
+        <v>629</v>
       </c>
       <c r="D179" t="s">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="E179" t="s">
-        <v>863</v>
+        <v>818</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="B180" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C180" t="s">
-        <v>677</v>
+        <v>632</v>
       </c>
       <c r="D180" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
       <c r="E180" t="s">
-        <v>864</v>
+        <v>819</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>679</v>
+        <v>634</v>
       </c>
       <c r="B181" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C181" t="s">
-        <v>680</v>
+        <v>635</v>
       </c>
       <c r="D181" t="s">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="E181" t="s">
-        <v>880</v>
+        <v>835</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>682</v>
+        <v>637</v>
       </c>
       <c r="B182" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C182" t="s">
-        <v>683</v>
+        <v>638</v>
       </c>
       <c r="D182" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
       <c r="E182" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="B183" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C183" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="D183" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="E183" t="s">
-        <v>866</v>
+        <v>821</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>688</v>
+        <v>643</v>
       </c>
       <c r="B184" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C184" t="s">
-        <v>689</v>
+        <v>644</v>
       </c>
       <c r="D184" t="s">
-        <v>690</v>
+        <v>645</v>
       </c>
       <c r="E184" t="s">
-        <v>867</v>
+        <v>822</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>691</v>
+        <v>646</v>
       </c>
       <c r="B185" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C185" t="s">
-        <v>692</v>
+        <v>647</v>
       </c>
       <c r="D185" t="s">
-        <v>693</v>
+        <v>648</v>
       </c>
       <c r="E185" t="s">
-        <v>868</v>
+        <v>823</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>694</v>
+        <v>649</v>
       </c>
       <c r="B186" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C186" t="s">
-        <v>695</v>
+        <v>650</v>
       </c>
       <c r="D186" t="s">
-        <v>696</v>
+        <v>651</v>
       </c>
       <c r="E186" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>697</v>
+        <v>652</v>
       </c>
       <c r="B187" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C187" t="s">
-        <v>698</v>
+        <v>653</v>
       </c>
       <c r="D187" t="s">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="E187" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>700</v>
+        <v>655</v>
       </c>
       <c r="B188" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C188" t="s">
-        <v>701</v>
+        <v>656</v>
       </c>
       <c r="D188" t="s">
-        <v>702</v>
+        <v>657</v>
       </c>
       <c r="E188" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="B189" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C189" t="s">
-        <v>704</v>
+        <v>659</v>
       </c>
       <c r="D189" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="E189" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="B190" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C190" t="s">
-        <v>706</v>
+        <v>661</v>
       </c>
       <c r="D190" t="s">
-        <v>707</v>
+        <v>662</v>
       </c>
       <c r="E190" t="s">
-        <v>875</v>
+        <v>830</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>708</v>
+        <v>663</v>
       </c>
       <c r="B191" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C191" t="s">
-        <v>709</v>
+        <v>664</v>
       </c>
       <c r="D191" t="s">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="E191" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>711</v>
+        <v>666</v>
       </c>
       <c r="B192" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C192" t="s">
-        <v>712</v>
+        <v>667</v>
       </c>
       <c r="D192" t="s">
-        <v>713</v>
+        <v>668</v>
       </c>
       <c r="E192" t="s">
-        <v>882</v>
+        <v>837</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>714</v>
+        <v>669</v>
       </c>
       <c r="B193" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C193" t="s">
-        <v>715</v>
+        <v>670</v>
       </c>
       <c r="D193" t="s">
-        <v>716</v>
+        <v>671</v>
       </c>
       <c r="E193" t="s">
-        <v>883</v>
+        <v>838</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>717</v>
+        <v>672</v>
       </c>
       <c r="B194" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C194" t="s">
-        <v>718</v>
+        <v>673</v>
       </c>
       <c r="D194" t="s">
-        <v>719</v>
+        <v>674</v>
       </c>
       <c r="E194" t="s">
-        <v>884</v>
+        <v>839</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>720</v>
+        <v>675</v>
       </c>
       <c r="B195" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C195" t="s">
-        <v>721</v>
+        <v>676</v>
       </c>
       <c r="D195" t="s">
-        <v>722</v>
+        <v>677</v>
       </c>
       <c r="E195" t="s">
-        <v>885</v>
+        <v>840</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>723</v>
+        <v>678</v>
       </c>
       <c r="B196" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C196" t="s">
-        <v>724</v>
+        <v>679</v>
       </c>
       <c r="D196" t="s">
-        <v>725</v>
+        <v>680</v>
       </c>
       <c r="E196" t="s">
-        <v>886</v>
+        <v>841</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>726</v>
+        <v>681</v>
       </c>
       <c r="B197" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C197" t="s">
-        <v>727</v>
+        <v>682</v>
       </c>
       <c r="D197" t="s">
-        <v>728</v>
+        <v>683</v>
       </c>
       <c r="E197" t="s">
-        <v>887</v>
+        <v>842</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
       <c r="B198" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C198" t="s">
-        <v>730</v>
+        <v>685</v>
       </c>
       <c r="D198" t="s">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="E198" t="s">
-        <v>888</v>
+        <v>843</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>732</v>
+        <v>687</v>
       </c>
       <c r="B199" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C199" t="s">
-        <v>733</v>
+        <v>688</v>
       </c>
       <c r="D199" t="s">
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="E199" t="s">
-        <v>889</v>
+        <v>844</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>735</v>
+        <v>690</v>
       </c>
       <c r="B200" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="C200" t="s">
-        <v>736</v>
+        <v>691</v>
       </c>
       <c r="D200" t="s">
-        <v>737</v>
+        <v>692</v>
       </c>
       <c r="E200" t="s">
-        <v>890</v>
+        <v>845</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>738</v>
+        <v>693</v>
       </c>
       <c r="B201" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="C201" t="s">
-        <v>739</v>
+        <v>694</v>
       </c>
       <c r="D201" t="s">
-        <v>740</v>
+        <v>695</v>
       </c>
       <c r="E201" t="s">
-        <v>891</v>
+        <v>846</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>741</v>
+        <v>696</v>
       </c>
       <c r="B202" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="C202" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="D202" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="E202" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>745</v>
+        <v>700</v>
       </c>
       <c r="B203" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C203" t="s">
-        <v>747</v>
+        <v>702</v>
       </c>
       <c r="D203" t="s">
-        <v>748</v>
+        <v>703</v>
       </c>
       <c r="E203" t="s">
-        <v>893</v>
+        <v>848</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="B204" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C204" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
       <c r="D204" t="s">
-        <v>751</v>
+        <v>706</v>
       </c>
       <c r="E204" t="s">
-        <v>894</v>
+        <v>849</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>752</v>
+        <v>707</v>
       </c>
       <c r="B205" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C205" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
       <c r="D205" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="E205" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>754</v>
+        <v>709</v>
       </c>
       <c r="B206" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C206" t="s">
-        <v>755</v>
+        <v>710</v>
       </c>
       <c r="D206" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="E206" t="s">
-        <v>895</v>
+        <v>850</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="B207" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C207" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
       <c r="D207" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="E207" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>760</v>
+        <v>715</v>
       </c>
       <c r="B208" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C208" t="s">
-        <v>761</v>
+        <v>716</v>
       </c>
       <c r="D208" t="s">
-        <v>762</v>
+        <v>717</v>
       </c>
       <c r="E208" t="s">
-        <v>897</v>
+        <v>852</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>763</v>
+        <v>718</v>
       </c>
       <c r="B209" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C209" t="s">
-        <v>764</v>
+        <v>719</v>
       </c>
       <c r="D209" t="s">
-        <v>765</v>
+        <v>720</v>
       </c>
       <c r="E209" t="s">
-        <v>903</v>
+        <v>858</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>766</v>
+        <v>721</v>
       </c>
       <c r="B210" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C210" t="s">
-        <v>767</v>
+        <v>722</v>
       </c>
       <c r="D210" t="s">
-        <v>768</v>
+        <v>723</v>
       </c>
       <c r="E210" t="s">
-        <v>904</v>
+        <v>859</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>769</v>
+        <v>724</v>
       </c>
       <c r="B211" t="s">
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>770</v>
+        <v>725</v>
       </c>
       <c r="D211" t="s">
-        <v>771</v>
+        <v>726</v>
       </c>
       <c r="E211" t="s">
-        <v>898</v>
+        <v>853</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>772</v>
+        <v>727</v>
       </c>
       <c r="B212" t="s">
         <v>260</v>
       </c>
       <c r="C212" t="s">
-        <v>773</v>
+        <v>728</v>
       </c>
       <c r="D212" t="s">
-        <v>771</v>
+        <v>726</v>
       </c>
       <c r="E212" t="s">
-        <v>898</v>
+        <v>853</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>774</v>
+        <v>729</v>
       </c>
       <c r="B213" t="s">
         <v>260</v>
       </c>
       <c r="C213" t="s">
-        <v>775</v>
+        <v>730</v>
       </c>
       <c r="D213" t="s">
-        <v>776</v>
+        <v>731</v>
       </c>
       <c r="E213" t="s">
-        <v>899</v>
+        <v>854</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>777</v>
+        <v>732</v>
       </c>
       <c r="B214" t="s">
         <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>778</v>
+        <v>733</v>
       </c>
       <c r="D214" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
       <c r="E214" t="s">
-        <v>891</v>
+        <v>846</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>780</v>
+        <v>735</v>
       </c>
       <c r="B215" t="s">
         <v>260</v>
       </c>
       <c r="C215" t="s">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="D215" t="s">
-        <v>782</v>
+        <v>737</v>
       </c>
       <c r="E215" t="s">
-        <v>900</v>
+        <v>855</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>783</v>
+        <v>738</v>
       </c>
       <c r="B216" t="s">
         <v>260</v>
       </c>
       <c r="C216" t="s">
-        <v>784</v>
+        <v>739</v>
       </c>
       <c r="D216" t="s">
-        <v>785</v>
+        <v>740</v>
       </c>
       <c r="E216" t="s">
-        <v>897</v>
+        <v>852</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>786</v>
+        <v>741</v>
       </c>
       <c r="B217" t="s">
         <v>260</v>
       </c>
       <c r="C217" t="s">
-        <v>787</v>
+        <v>742</v>
       </c>
       <c r="D217" t="s">
-        <v>788</v>
+        <v>743</v>
       </c>
       <c r="E217" t="s">
-        <v>901</v>
+        <v>856</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>789</v>
+        <v>744</v>
       </c>
       <c r="B218" t="s">
         <v>260</v>
       </c>
       <c r="C218" t="s">
-        <v>790</v>
+        <v>745</v>
       </c>
       <c r="D218" t="s">
-        <v>791</v>
+        <v>746</v>
       </c>
       <c r="E218" t="s">
-        <v>903</v>
+        <v>858</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="B219" t="s">
         <v>260</v>
       </c>
       <c r="C219" t="s">
-        <v>793</v>
+        <v>748</v>
       </c>
       <c r="D219" t="s">
-        <v>794</v>
+        <v>749</v>
       </c>
       <c r="E219" t="s">
-        <v>902</v>
+        <v>857</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>795</v>
+        <v>750</v>
       </c>
       <c r="B220" t="s">
         <v>260</v>
       </c>
       <c r="C220" t="s">
-        <v>796</v>
+        <v>751</v>
       </c>
       <c r="D220" t="s">
-        <v>768</v>
+        <v>723</v>
       </c>
       <c r="E220" t="s">
-        <v>904</v>
+        <v>859</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>797</v>
+        <v>752</v>
       </c>
       <c r="B221" t="s">
         <v>260</v>
       </c>
       <c r="C221" t="s">
-        <v>798</v>
+        <v>753</v>
       </c>
       <c r="D221" t="s">
-        <v>799</v>
+        <v>754</v>
       </c>
       <c r="E221" t="s">
-        <v>905</v>
+        <v>860</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="B222" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C222" t="s">
-        <v>801</v>
+        <v>756</v>
       </c>
       <c r="D222" t="s">
-        <v>802</v>
+        <v>757</v>
       </c>
       <c r="E222" t="s">
-        <v>907</v>
+        <v>862</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>803</v>
+        <v>758</v>
       </c>
       <c r="B223" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C223" t="s">
-        <v>804</v>
+        <v>759</v>
       </c>
       <c r="D223" t="s">
-        <v>805</v>
+        <v>760</v>
       </c>
       <c r="E223" t="s">
-        <v>906</v>
+        <v>861</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="B224" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C224" t="s">
-        <v>807</v>
+        <v>762</v>
       </c>
       <c r="D224" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="E224" t="s">
-        <v>892</v>
+        <v>847</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>808</v>
+        <v>763</v>
       </c>
       <c r="B225" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C225" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="D225" t="s">
-        <v>810</v>
+        <v>765</v>
       </c>
       <c r="E225" t="s">
-        <v>908</v>
+        <v>863</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="B226" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C226" t="s">
-        <v>812</v>
+        <v>767</v>
       </c>
       <c r="D226" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="E226" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>813</v>
+        <v>768</v>
       </c>
       <c r="B227" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="C227" t="s">
-        <v>814</v>
+        <v>769</v>
       </c>
       <c r="D227" t="s">
-        <v>759</v>
+        <v>714</v>
       </c>
       <c r="E227" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>815</v>
+        <v>770</v>
       </c>
       <c r="B228" t="s">
         <v>260</v>
       </c>
       <c r="C228" t="s">
-        <v>816</v>
+        <v>771</v>
       </c>
       <c r="D228" t="s">
-        <v>817</v>
+        <v>772</v>
       </c>
       <c r="E228" t="s">
-        <v>909</v>
+        <v>864</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>818</v>
+        <v>773</v>
       </c>
       <c r="B229" t="s">
         <v>260</v>
       </c>
       <c r="C229" t="s">
-        <v>819</v>
+        <v>774</v>
       </c>
       <c r="D229" t="s">
-        <v>820</v>
+        <v>775</v>
       </c>
       <c r="E229" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>821</v>
+        <v>776</v>
       </c>
       <c r="B230" t="s">
         <v>260</v>
       </c>
       <c r="C230" t="s">
-        <v>822</v>
+        <v>777</v>
       </c>
       <c r="D230" t="s">
-        <v>823</v>
+        <v>778</v>
       </c>
       <c r="E230" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>824</v>
+        <v>779</v>
       </c>
       <c r="B231" t="s">
         <v>260</v>
       </c>
       <c r="C231" t="s">
-        <v>825</v>
+        <v>780</v>
       </c>
       <c r="D231" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
       <c r="E231" t="s">
-        <v>891</v>
+        <v>846</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="B232" t="s">
         <v>260</v>
       </c>
       <c r="C232" t="s">
-        <v>827</v>
+        <v>782</v>
       </c>
       <c r="D232" t="s">
-        <v>828</v>
+        <v>783</v>
       </c>
       <c r="E232" t="s">
-        <v>912</v>
+        <v>867</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>829</v>
+        <v>784</v>
       </c>
       <c r="B233" t="s">
         <v>260</v>
       </c>
       <c r="C233" t="s">
-        <v>830</v>
+        <v>785</v>
       </c>
       <c r="D233" t="s">
-        <v>831</v>
+        <v>786</v>
       </c>
       <c r="E233" t="s">
-        <v>896</v>
+        <v>851</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>832</v>
+        <v>787</v>
       </c>
       <c r="B234" t="s">
         <v>260</v>
       </c>
       <c r="C234" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="D234" t="s">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="E234" t="s">
-        <v>913</v>
+        <v>868</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="B235" t="s">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="C235" t="s">
-        <v>837</v>
+        <v>792</v>
       </c>
       <c r="D235" t="s">
-        <v>838</v>
+        <v>793</v>
       </c>
       <c r="E235" t="s">
-        <v>914</v>
+        <v>869</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="B236" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C236" t="s">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="D236" t="s">
-        <v>842</v>
+        <v>797</v>
       </c>
       <c r="E236" t="s">
-        <v>915</v>
+        <v>870</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
       <c r="B237" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C237" t="s">
-        <v>844</v>
+        <v>799</v>
       </c>
       <c r="D237" t="s">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="E237" t="s">
-        <v>916</v>
+        <v>871</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="B238" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C238" t="s">
-        <v>847</v>
+        <v>802</v>
       </c>
       <c r="D238" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E238" t="s">
-        <v>917</v>
+        <v>872</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="B239" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C239" t="s">
-        <v>850</v>
+        <v>805</v>
       </c>
       <c r="D239" t="s">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="E239" t="s">
-        <v>918</v>
+        <v>873</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>852</v>
+        <v>807</v>
       </c>
       <c r="B240" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C240" t="s">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="D240" t="s">
-        <v>854</v>
+        <v>809</v>
       </c>
       <c r="E240" t="s">
-        <v>919</v>
+        <v>874</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>855</v>
+        <v>810</v>
       </c>
       <c r="B241" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C241" t="s">
-        <v>856</v>
+        <v>811</v>
       </c>
       <c r="D241" t="s">
-        <v>857</v>
+        <v>812</v>
       </c>
       <c r="E241" t="s">
-        <v>920</v>
+        <v>875</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>858</v>
+        <v>813</v>
       </c>
       <c r="B242" t="s">
-        <v>840</v>
+        <v>795</v>
       </c>
       <c r="C242" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
       <c r="D242" t="s">
-        <v>860</v>
+        <v>815</v>
       </c>
       <c r="E242" t="s">
-        <v>921</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Nephilim Xenotype - 2997308585/Nephilim Xenotype - 2997308585.xlsx
+++ b/Data/Nephilim Xenotype - 2997308585/Nephilim Xenotype - 2997308585.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\RMK\Data\Nephilim Xenotype - 2997308585\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Sovereign's mod\Nephilim Xenotype - 2997308585\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D21342-F452-445B-A6E5-C6ECBE79C07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F6097-D046-4A6C-8D4B-CD85AF56411A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="922">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1140,6 +1140,32 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>firstNamePrefix-&gt;Auri</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아우리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.2</t>
   </si>
   <si>
@@ -1159,6 +1185,19 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>셀레스티</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.3</t>
   </si>
   <si>
@@ -1168,6 +1207,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.4</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.4</t>
   </si>
   <si>
@@ -1177,6 +1229,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.5</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제피</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.5</t>
   </si>
   <si>
@@ -1186,6 +1251,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.6</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>루미시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.6</t>
   </si>
   <si>
@@ -1195,6 +1273,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.7</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에테리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.7</t>
   </si>
   <si>
@@ -1204,6 +1295,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>디비</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.8</t>
   </si>
   <si>
@@ -1213,6 +1317,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.9</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라디</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.9</t>
   </si>
   <si>
@@ -1222,6 +1339,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.10</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하모니</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.10</t>
   </si>
   <si>
@@ -1231,6 +1361,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.11</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에쏘리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.11</t>
   </si>
   <si>
@@ -1240,6 +1383,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.12</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아스트리시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.12</t>
   </si>
   <si>
@@ -1249,6 +1405,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.13</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>세레니</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.13</t>
   </si>
   <si>
@@ -1258,6 +1427,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.14</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>트란키</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.14</t>
   </si>
   <si>
@@ -1267,6 +1449,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.15</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>셀루미</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.15</t>
   </si>
   <si>
@@ -1276,6 +1471,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.16</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지오니</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.16</t>
   </si>
   <si>
@@ -1285,6 +1493,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.17</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘리오니</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.17</t>
   </si>
   <si>
@@ -1294,6 +1515,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.18</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아우루미</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.18</t>
   </si>
   <si>
@@ -1303,6 +1537,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.19</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>루미나리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.19</t>
   </si>
   <si>
@@ -1312,6 +1559,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.20</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넥시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.20</t>
   </si>
   <si>
@@ -1321,6 +1581,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.21</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아리아</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.21</t>
   </si>
   <si>
@@ -1330,6 +1603,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.22</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제피리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.22</t>
   </si>
   <si>
@@ -1339,6 +1625,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.23</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아우로라</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.23</t>
   </si>
   <si>
@@ -1348,6 +1647,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.24</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>세라피</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.24</t>
   </si>
   <si>
@@ -1357,6 +1669,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.25</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아주리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.25</t>
   </si>
   <si>
@@ -1366,6 +1691,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.26</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에고리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.26</t>
   </si>
   <si>
@@ -1375,6 +1713,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.27</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하모닉시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.27</t>
   </si>
   <si>
@@ -1384,6 +1735,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.28</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에테레오니</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.28</t>
   </si>
   <si>
@@ -1393,6 +1757,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.29</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>젠토리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.29</t>
   </si>
   <si>
@@ -1402,6 +1779,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.30</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>셀레스티시</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.30</t>
   </si>
   <si>
@@ -1411,12 +1801,41 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.31</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>루미아</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.31</t>
   </si>
   <si>
+    <t>firstNameSuffix-&gt;el</t>
+  </si>
+  <si>
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.32</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>엘</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.32</t>
   </si>
   <si>
@@ -1426,6 +1845,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.33</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>우스</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.33</t>
   </si>
   <si>
@@ -1435,6 +1867,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.34</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아라</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.34</t>
   </si>
   <si>
@@ -1444,6 +1889,19 @@
     <t>RulePackDef+NamerFirstnamesAngelkin.rulePack.rulesStrings.35</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에온</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>NamerFirstnamesAngelkin.rulePack.rulesStrings.35</t>
   </si>
   <si>
@@ -2416,6 +2874,9 @@
     <t>yellow-eyed</t>
   </si>
   <si>
+    <t>GeneDef: GS_Eyes_Yellowy.labelShortAdj 'yellow-eyed'</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2438,6 +2899,9 @@
     <t>은총을 제공합니다.</t>
   </si>
   <si>
+    <t>GeneDef: Grace.customEffectDescriptions.0 'Gives grace supply.'</t>
+  </si>
+  <si>
     <t>Grace.resourceDescription</t>
   </si>
   <si>
@@ -2447,15 +2911,24 @@
     <t>다양한 방법으로 획득하고 사용할 수 있는 신성한 힘의 비축량입니다.\n\n은총은 사람을 구하는 등의 착한 행동을 통해 얻을 수 있습니다. 또는 은총 팩을 가진 사람을 죽이는 것과 같은 비열한 행동으로 얻을 수도 있습니다. 여러분의 선택에 달렸습니다.</t>
   </si>
   <si>
+    <t>GeneDef: Grace.resourceDescription 'A reserve of holy strength which can be gained and spent in a variety of ways.\n\nGrace is gained by performing nice actions like saving people. Or mean actions like killing people who have Grace packs. Your choice.'</t>
+  </si>
+  <si>
     <t>Grace.resourceLabel</t>
   </si>
   <si>
+    <t>GeneDef: Grace.resourceLabel 'grace'</t>
+  </si>
+  <si>
     <t>GraceDrain.labelShortAdj</t>
   </si>
   <si>
     <t>draining</t>
   </si>
   <si>
+    <t>GeneDef: GraceDrain.labelShortAdj 'draining'</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2475,9 +2948,15 @@
     <t>GraceRegeneration.labelShortAdj</t>
   </si>
   <si>
+    <t>GeneDef: GraceDrain.resourceLabel 'grace'</t>
+  </si>
+  <si>
     <t>regenerating</t>
   </si>
   <si>
+    <t>GeneDef: GraceRegeneration.labelShortAdj 'regenerating'</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2497,7 +2976,13 @@
     <t>Nephilim.descriptionShort</t>
   </si>
   <si>
+    <t>GeneDef: GraceRegeneration.resourceLabel 'grace'</t>
+  </si>
+  <si>
     <t>With unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.</t>
+  </si>
+  <si>
+    <t>XenotypeDef: Nephilim.descriptionShort 'With unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.'</t>
   </si>
   <si>
     <r>
@@ -3385,156 +3870,15 @@
   <si>
     <t>열광의 사제모</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNameSuffix-&gt;el</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;Auri</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아우리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;셀레스티</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;엘리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;제피</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;루미시</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;에테리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;디비</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;라디</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;하모니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;에쏘리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아스트리시</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;세레니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;트란키</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;셀루미</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;지오니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;엘리오니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아우루미</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;루미나리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;넥시</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아리아</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;제피리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아우로라</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;세라피</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;아주리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;에고리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;하모닉시</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;에테레오니</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;젠토리</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;셀레스티시</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNamePrefix-&gt;루미아</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNameSuffix-&gt;엘</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNameSuffix-&gt;우스</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNameSuffix-&gt;아라</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstNameSuffix-&gt;에온</t>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;firstNamePrefix-&gt;&quot;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3608,8 +3952,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3914,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D245" sqref="D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3928,7 +4272,7 @@
     <col min="6" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3948,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3967,8 +4311,12 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="e">
+        <f>VLOOKUP(A2,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3987,8 +4335,12 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="e">
+        <f>VLOOKUP(A3,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4007,8 +4359,12 @@
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="e">
+        <f>VLOOKUP(A4,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -4027,8 +4383,12 @@
       <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="e">
+        <f>VLOOKUP(A5,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4044,8 +4404,12 @@
       <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="e">
+        <f>VLOOKUP(A6,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -4061,8 +4425,12 @@
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="e">
+        <f>VLOOKUP(A7,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -4078,8 +4446,12 @@
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="e">
+        <f>VLOOKUP(A8,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -4095,8 +4467,12 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="e">
+        <f>VLOOKUP(A9,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -4112,8 +4488,12 @@
       <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="e">
+        <f>VLOOKUP(A10,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4129,8 +4509,12 @@
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="e">
+        <f>VLOOKUP(A11,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,8 +4530,12 @@
       <c r="E12" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="e">
+        <f>VLOOKUP(A12,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -4163,8 +4551,12 @@
       <c r="E13" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="e">
+        <f>VLOOKUP(A13,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -4180,8 +4572,12 @@
       <c r="E14" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="e">
+        <f>VLOOKUP(A14,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -4197,8 +4593,12 @@
       <c r="E15" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="e">
+        <f>VLOOKUP(A15,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -4214,8 +4614,12 @@
       <c r="E16" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" t="e">
+        <f>VLOOKUP(A16,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -4231,8 +4635,12 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" t="e">
+        <f>VLOOKUP(A17,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -4248,8 +4656,12 @@
       <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" t="e">
+        <f>VLOOKUP(A18,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4265,8 +4677,12 @@
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" t="e">
+        <f>VLOOKUP(A19,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
@@ -4282,8 +4698,12 @@
       <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" t="e">
+        <f>VLOOKUP(A20,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
@@ -4299,8 +4719,12 @@
       <c r="E21" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -4316,8 +4740,12 @@
       <c r="E22" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" t="e">
+        <f>VLOOKUP(A22,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -4333,8 +4761,12 @@
       <c r="E23" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" t="e">
+        <f>VLOOKUP(A23,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>96</v>
       </c>
@@ -4350,8 +4782,12 @@
       <c r="E24" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" t="e">
+        <f>VLOOKUP(A24,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -4367,8 +4803,12 @@
       <c r="E25" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" t="e">
+        <f>VLOOKUP(A25,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4384,8 +4824,12 @@
       <c r="E26" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="e">
+        <f>VLOOKUP(A26,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -4401,8 +4845,12 @@
       <c r="E27" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="e">
+        <f>VLOOKUP(A27,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -4418,8 +4866,12 @@
       <c r="E28" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" t="e">
+        <f>VLOOKUP(A28,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>119</v>
       </c>
@@ -4435,8 +4887,12 @@
       <c r="E29" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" t="e">
+        <f>VLOOKUP(A29,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>123</v>
       </c>
@@ -4452,8 +4908,12 @@
       <c r="E30" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" t="e">
+        <f>VLOOKUP(A30,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>127</v>
       </c>
@@ -4469,8 +4929,12 @@
       <c r="E31" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" t="e">
+        <f>VLOOKUP(A31,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -4486,8 +4950,12 @@
       <c r="E32" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" t="e">
+        <f>VLOOKUP(A32,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>131</v>
       </c>
@@ -4503,8 +4971,12 @@
       <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" t="e">
+        <f>VLOOKUP(A33,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>135</v>
       </c>
@@ -4520,8 +4992,12 @@
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" t="e">
+        <f>VLOOKUP(A34,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>139</v>
       </c>
@@ -4537,8 +5013,12 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" t="e">
+        <f>VLOOKUP(A35,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -4554,8 +5034,12 @@
       <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" t="e">
+        <f>VLOOKUP(A36,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -4571,8 +5055,12 @@
       <c r="E37" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" t="e">
+        <f>VLOOKUP(A37,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -4588,8 +5076,12 @@
       <c r="E38" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" t="e">
+        <f>VLOOKUP(A38,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -4605,8 +5097,12 @@
       <c r="E39" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" t="e">
+        <f>VLOOKUP(A39,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
@@ -4622,8 +5118,12 @@
       <c r="E40" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" t="e">
+        <f>VLOOKUP(A40,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>159</v>
       </c>
@@ -4639,8 +5139,12 @@
       <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" t="e">
+        <f>VLOOKUP(A41,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -4656,8 +5160,12 @@
       <c r="E42" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" t="e">
+        <f>VLOOKUP(A42,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>165</v>
       </c>
@@ -4673,8 +5181,12 @@
       <c r="E43" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" t="e">
+        <f>VLOOKUP(A43,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>169</v>
       </c>
@@ -4690,8 +5202,12 @@
       <c r="E44" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" t="e">
+        <f>VLOOKUP(A44,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>173</v>
       </c>
@@ -4707,8 +5223,12 @@
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" t="e">
+        <f>VLOOKUP(A45,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>177</v>
       </c>
@@ -4724,8 +5244,12 @@
       <c r="E46" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" t="e">
+        <f>VLOOKUP(A46,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>178</v>
       </c>
@@ -4741,8 +5265,12 @@
       <c r="E47" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" t="e">
+        <f>VLOOKUP(A47,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>184</v>
       </c>
@@ -4758,8 +5286,12 @@
       <c r="E48" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" t="e">
+        <f>VLOOKUP(A48,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -4775,8 +5307,12 @@
       <c r="E49" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" t="e">
+        <f>VLOOKUP(A49,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
@@ -4792,8 +5328,12 @@
       <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" t="e">
+        <f>VLOOKUP(A50,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>195</v>
       </c>
@@ -4809,8 +5349,12 @@
       <c r="E51" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" t="e">
+        <f>VLOOKUP(A51,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>198</v>
       </c>
@@ -4826,8 +5370,12 @@
       <c r="E52" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" t="e">
+        <f>VLOOKUP(A52,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>204</v>
       </c>
@@ -4843,8 +5391,12 @@
       <c r="E53" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" t="e">
+        <f>VLOOKUP(A53,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
@@ -4860,8 +5412,12 @@
       <c r="E54" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" t="e">
+        <f>VLOOKUP(A54,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>212</v>
       </c>
@@ -4877,8 +5433,12 @@
       <c r="E55" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" t="e">
+        <f>VLOOKUP(A55,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -4894,8 +5454,12 @@
       <c r="E56" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" t="e">
+        <f>VLOOKUP(A56,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -4911,8 +5475,12 @@
       <c r="E57" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" t="e">
+        <f>VLOOKUP(A57,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>222</v>
       </c>
@@ -4928,8 +5496,12 @@
       <c r="E58" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" t="e">
+        <f>VLOOKUP(A58,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -4945,8 +5517,12 @@
       <c r="E59" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" t="e">
+        <f>VLOOKUP(A59,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -4962,8 +5538,12 @@
       <c r="E60" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" t="e">
+        <f>VLOOKUP(A60,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>235</v>
       </c>
@@ -4979,8 +5559,12 @@
       <c r="E61" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" t="e">
+        <f>VLOOKUP(A61,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
@@ -4996,8 +5580,12 @@
       <c r="E62" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" t="e">
+        <f>VLOOKUP(A62,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>244</v>
       </c>
@@ -5013,8 +5601,12 @@
       <c r="E63" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" t="e">
+        <f>VLOOKUP(A63,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>247</v>
       </c>
@@ -5030,8 +5622,12 @@
       <c r="E64" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64" t="e">
+        <f>VLOOKUP(A64,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>251</v>
       </c>
@@ -5047,8 +5643,12 @@
       <c r="E65" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65" t="e">
+        <f>VLOOKUP(A65,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>254</v>
       </c>
@@ -5064,8 +5664,12 @@
       <c r="E66" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" t="e">
+        <f>VLOOKUP(A66,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>259</v>
       </c>
@@ -5081,8 +5685,12 @@
       <c r="E67" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" t="e">
+        <f>VLOOKUP(A67,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>261</v>
       </c>
@@ -5092,14 +5700,18 @@
       <c r="C68" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>604</v>
+      <c r="D68" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68" t="e">
+        <f>VLOOKUP(A68,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
@@ -5109,14 +5721,18 @@
       <c r="C69" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69" t="e">
+        <f>VLOOKUP(A69,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>268</v>
       </c>
@@ -5132,8 +5748,12 @@
       <c r="E70" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70" t="e">
+        <f>VLOOKUP(A70,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>270</v>
       </c>
@@ -5149,8 +5769,12 @@
       <c r="E71" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71" t="e">
+        <f>VLOOKUP(A71,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>272</v>
       </c>
@@ -5166,8 +5790,12 @@
       <c r="E72" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72" t="e">
+        <f>VLOOKUP(A72,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>275</v>
       </c>
@@ -5183,8 +5811,12 @@
       <c r="E73" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73" t="e">
+        <f>VLOOKUP(A73,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>277</v>
       </c>
@@ -5200,8 +5832,12 @@
       <c r="E74" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74" t="e">
+        <f>VLOOKUP(A74,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>280</v>
       </c>
@@ -5217,8 +5853,12 @@
       <c r="E75" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75" t="e">
+        <f>VLOOKUP(A75,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>282</v>
       </c>
@@ -5234,8 +5874,12 @@
       <c r="E76" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" t="e">
+        <f>VLOOKUP(A76,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>287</v>
       </c>
@@ -5251,8 +5895,12 @@
       <c r="E77" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G77" t="e">
+        <f>VLOOKUP(A77,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>290</v>
       </c>
@@ -5263,13 +5911,17 @@
         <v>291</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G78" t="e">
+        <f>VLOOKUP(A78,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>292</v>
       </c>
@@ -5277,1211 +5929,1495 @@
         <v>284</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G79" t="e">
+        <f>VLOOKUP(A79,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G80" t="e">
+        <f>VLOOKUP(A80,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G81" t="e">
+        <f>VLOOKUP(A81,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" t="e">
+        <f>VLOOKUP(A82,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G83" t="e">
+        <f>VLOOKUP(A83,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G84" t="e">
+        <f>VLOOKUP(A84,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G85" t="e">
+        <f>VLOOKUP(A85,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86" t="e">
+        <f>VLOOKUP(A86,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G87" t="e">
+        <f>VLOOKUP(A87,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" t="e">
+        <f>VLOOKUP(A88,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G89" t="e">
+        <f>VLOOKUP(A89,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G90" t="e">
+        <f>VLOOKUP(A90,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91" t="e">
+        <f>VLOOKUP(A91,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G92" t="e">
+        <f>VLOOKUP(A92,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G93" t="e">
+        <f>VLOOKUP(A93,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="G94" t="e">
+        <f>VLOOKUP(A94,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G95" t="e">
+        <f>VLOOKUP(A95,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G96" t="e">
+        <f>VLOOKUP(A96,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G97" t="e">
+        <f>VLOOKUP(A97,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G98" t="e">
+        <f>VLOOKUP(A98,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" t="e">
+        <f>VLOOKUP(A99,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G100" t="e">
+        <f>VLOOKUP(A100,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G101" t="e">
+        <f>VLOOKUP(A101,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G102" t="e">
+        <f>VLOOKUP(A102,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G103" t="e">
+        <f>VLOOKUP(A103,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G104" t="e">
+        <f>VLOOKUP(A104,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>370</v>
+        <v>397</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G105" t="e">
+        <f>VLOOKUP(A105,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G106" t="e">
+        <f>VLOOKUP(A106,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G107" t="e">
+        <f>VLOOKUP(A107,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G108" t="e">
+        <f>VLOOKUP(A108,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G109" t="e">
+        <f>VLOOKUP(A109,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G110" t="e">
+        <f>VLOOKUP(A110,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G111" t="e">
+        <f>VLOOKUP(A111,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>391</v>
+        <v>427</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G112" t="e">
+        <f>VLOOKUP(A112,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G113" t="e">
+        <f>VLOOKUP(A113,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="G114" t="e">
+        <f>VLOOKUP(A114,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+      <c r="G115" t="e">
+        <f>VLOOKUP(A115,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+      <c r="G116" t="e">
+        <f>VLOOKUP(A116,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="G117" t="e">
+        <f>VLOOKUP(A117,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="G118" t="e">
+        <f>VLOOKUP(A118,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>414</v>
+        <v>450</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="G119" t="e">
+        <f>VLOOKUP(A119,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>418</v>
+        <v>454</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="G120" t="e">
+        <f>VLOOKUP(A120,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="G121" t="e">
+        <f>VLOOKUP(A121,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="G122" t="e">
+        <f>VLOOKUP(A122,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="G123" t="e">
+        <f>VLOOKUP(A123,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="G124" t="e">
+        <f>VLOOKUP(A124,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="G125" t="e">
+        <f>VLOOKUP(A125,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+      <c r="G126" t="e">
+        <f>VLOOKUP(A126,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="G127" t="e">
+        <f>VLOOKUP(A127,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="G128" t="e">
+        <f>VLOOKUP(A128,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="G129" t="e">
+        <f>VLOOKUP(A129,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="G130" t="e">
+        <f>VLOOKUP(A130,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="G131" t="e">
+        <f>VLOOKUP(A131,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="G132" t="e">
+        <f>VLOOKUP(A132,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="G133" t="e">
+        <f>VLOOKUP(A133,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="G134" t="e">
+        <f>VLOOKUP(A134,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="G135" t="e">
+        <f>VLOOKUP(A135,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="G136" t="e">
+        <f>VLOOKUP(A136,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="G137" t="e">
+        <f>VLOOKUP(A137,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="G138" t="e">
+        <f>VLOOKUP(A138,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="G139" t="e">
+        <f>VLOOKUP(A139,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="G140" t="e">
+        <f>VLOOKUP(A140,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="G141" t="e">
+        <f>VLOOKUP(A141,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>506</v>
+        <v>542</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="G142" t="e">
+        <f>VLOOKUP(A142,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="G143" t="e">
+        <f>VLOOKUP(A143,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="G144" t="e">
+        <f>VLOOKUP(A144,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>559</v>
+      </c>
+      <c r="G145" t="e">
+        <f>VLOOKUP(A145,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="G146" t="e">
+        <f>VLOOKUP(A146,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="G147" t="e">
+        <f>VLOOKUP(A147,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="G148" t="e">
+        <f>VLOOKUP(A148,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>284</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="G149" t="e">
+        <f>VLOOKUP(A149,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>50</v>
@@ -6492,192 +7428,240 @@
       <c r="E150" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G150" t="e">
+        <f>VLOOKUP(A150,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="G151" t="e">
+        <f>VLOOKUP(A151,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+      <c r="G152" t="e">
+        <f>VLOOKUP(A152,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="G153" t="e">
+        <f>VLOOKUP(A153,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="G154" t="e">
+        <f>VLOOKUP(A154,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+      <c r="G155" t="e">
+        <f>VLOOKUP(A155,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="G156" t="e">
+        <f>VLOOKUP(A156,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="G157" t="e">
+        <f>VLOOKUP(A157,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="G158" t="e">
+        <f>VLOOKUP(A158,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G159" t="e">
+        <f>VLOOKUP(A159,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>579</v>
+        <v>615</v>
+      </c>
+      <c r="G160" t="e">
+        <f>VLOOKUP(A160,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>582</v>
+        <v>618</v>
+      </c>
+      <c r="G161" t="e">
+        <f>VLOOKUP(A161,#REF!,2,FALSE)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6685,17 +7669,20 @@
         <v>111</v>
       </c>
       <c r="C162" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="D162" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H162" t="e">
+        <v>622</v>
+      </c>
+      <c r="G162" t="s">
+        <v>621</v>
+      </c>
+      <c r="H162" t="str">
         <f>MID(G162,FIND("'",G162)+1,FIND("'",G162,FIND("'",G162)+1)-FIND("'",G162)-1)</f>
-        <v>#VALUE!</v>
+        <v>yellow-eyed</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6703,17 +7690,20 @@
         <v>111</v>
       </c>
       <c r="C163" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="D163" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="E163" t="s">
-        <v>588</v>
-      </c>
-      <c r="H163" t="e">
+        <v>625</v>
+      </c>
+      <c r="G163" t="s">
+        <v>626</v>
+      </c>
+      <c r="H163" t="str">
         <f>MID(G163,FIND("'",G163)+1,FIND("'",G163,FIND("'",G163)+1)-FIND("'",G163)-1)</f>
-        <v>#VALUE!</v>
+        <v>Gives grace supply.</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -6721,17 +7711,20 @@
         <v>111</v>
       </c>
       <c r="C164" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="D164" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="E164" t="s">
-        <v>591</v>
-      </c>
-      <c r="H164" t="e">
+        <v>629</v>
+      </c>
+      <c r="G164" t="s">
+        <v>630</v>
+      </c>
+      <c r="H164" t="str">
         <f>MID(G164,FIND("'",G163)+1,FIND("'",G164,FIND("'",G163)+1)-FIND("'",G164)-1)</f>
-        <v>#VALUE!</v>
+        <v>ve of holy strength which can be gained and spent in a variety of ways.\n\nGrace is gained by performing nice actions like saving people. Or mean actions like killing people who have Grace packs. Your choice.'</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6739,13 +7732,16 @@
         <v>111</v>
       </c>
       <c r="C165" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="D165" t="s">
         <v>175</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="G165" t="s">
+        <v>632</v>
       </c>
       <c r="H165" t="e">
         <f>MID(G165,FIND("'",G163)+1,FIND("'",G165,FIND("'",G163)+1)-FIND("'",G165)-1)</f>
@@ -6757,17 +7753,20 @@
         <v>111</v>
       </c>
       <c r="C166" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="D166" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H166" t="e">
+        <v>636</v>
+      </c>
+      <c r="G166" t="s">
+        <v>635</v>
+      </c>
+      <c r="H166" t="str">
         <f>MID(G166,FIND("'",G163)+1,FIND("'",G166,FIND("'",G163)+1)-FIND("'",G166)-1)</f>
-        <v>#VALUE!</v>
+        <v>'</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6775,13 +7774,16 @@
         <v>111</v>
       </c>
       <c r="C167" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="D167" t="s">
         <v>175</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="G167" t="s">
+        <v>639</v>
       </c>
       <c r="H167" t="e">
         <f>MID(G167,FIND("'",G163)+1,FIND("'",G167,FIND("'",G163)+1)-FIND("'",G167)-1)</f>
@@ -6793,17 +7795,20 @@
         <v>111</v>
       </c>
       <c r="C168" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="D168" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="H168" t="e">
+        <v>642</v>
+      </c>
+      <c r="G168" t="s">
+        <v>641</v>
+      </c>
+      <c r="H168" t="str">
         <f>MID(G168,FIND("'",G163)+1,FIND("'",G168,FIND("'",G163)+1)-FIND("'",G168)-1)</f>
-        <v>#VALUE!</v>
+        <v>egenerating'</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6811,7 +7816,7 @@
         <v>111</v>
       </c>
       <c r="C169" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="D169" t="s">
         <v>175</v>
@@ -6819,9 +7824,12 @@
       <c r="E169" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H169" t="e">
+      <c r="G169" t="s">
+        <v>645</v>
+      </c>
+      <c r="H169" t="str">
         <f>MID(G169,FIND("'",G163)+1,FIND("'",G169,FIND("'",G163)+1)-FIND("'",G169)-1)</f>
-        <v>#VALUE!</v>
+        <v>race'</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6829,1224 +7837,1227 @@
         <v>200</v>
       </c>
       <c r="C170" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="D170" t="s">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="E170" t="s">
-        <v>603</v>
-      </c>
-      <c r="H170" t="e">
+        <v>648</v>
+      </c>
+      <c r="G170" t="s">
+        <v>647</v>
+      </c>
+      <c r="H170" t="str">
         <f>MID(G170,FIND("'",G163)+1,FIND("'",G170,FIND("'",G163)+1)-FIND("'",G170)-1)</f>
-        <v>#VALUE!</v>
+        <v>h unearthly beauty, feathery wings and heads engulfed in a radiant halo, the Nephilim style themselves as emissaries and descendants of the divine. Martially gifted, physically striking and socially apt, they are natural leaders and often found across rimworlds sheparding small communes of adoring devotees eager for earthly deliverance at the hands of their protector.'</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>605</v>
+        <v>650</v>
       </c>
       <c r="B172" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="C172" t="s">
-        <v>607</v>
+        <v>652</v>
       </c>
       <c r="D172" t="s">
-        <v>608</v>
+        <v>653</v>
       </c>
       <c r="E172" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>609</v>
+        <v>654</v>
       </c>
       <c r="B173" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C173" t="s">
-        <v>611</v>
+        <v>656</v>
       </c>
       <c r="D173" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="E173" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="B174" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C174" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
       <c r="D174" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="E174" t="s">
-        <v>832</v>
+        <v>877</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="B175" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C175" t="s">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="D175" t="s">
-        <v>618</v>
+        <v>663</v>
       </c>
       <c r="E175" t="s">
-        <v>833</v>
+        <v>878</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>619</v>
+        <v>664</v>
       </c>
       <c r="B176" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C176" t="s">
-        <v>620</v>
+        <v>665</v>
       </c>
       <c r="D176" t="s">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="E176" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>622</v>
+        <v>667</v>
       </c>
       <c r="B177" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C177" t="s">
-        <v>623</v>
+        <v>668</v>
       </c>
       <c r="D177" t="s">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="E177" t="s">
-        <v>816</v>
+        <v>861</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>625</v>
+        <v>670</v>
       </c>
       <c r="B178" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C178" t="s">
-        <v>626</v>
+        <v>671</v>
       </c>
       <c r="D178" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="E178" t="s">
-        <v>817</v>
+        <v>862</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>628</v>
+        <v>673</v>
       </c>
       <c r="B179" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C179" t="s">
-        <v>629</v>
+        <v>674</v>
       </c>
       <c r="D179" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="E179" t="s">
-        <v>818</v>
+        <v>863</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="B180" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C180" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="D180" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="E180" t="s">
-        <v>819</v>
+        <v>864</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="B181" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C181" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="D181" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="E181" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="B182" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C182" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="D182" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="E182" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="B183" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C183" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="D183" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="E183" t="s">
-        <v>821</v>
+        <v>866</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="B184" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C184" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="D184" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="E184" t="s">
-        <v>822</v>
+        <v>867</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="B185" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C185" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="D185" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
       <c r="E185" t="s">
-        <v>823</v>
+        <v>868</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="B186" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C186" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="D186" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="E186" t="s">
-        <v>824</v>
+        <v>869</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>652</v>
+        <v>697</v>
       </c>
       <c r="B187" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C187" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="D187" t="s">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="E187" t="s">
-        <v>825</v>
+        <v>870</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>700</v>
+      </c>
+      <c r="B188" t="s">
         <v>655</v>
       </c>
-      <c r="B188" t="s">
-        <v>610</v>
-      </c>
       <c r="C188" t="s">
-        <v>656</v>
+        <v>701</v>
       </c>
       <c r="D188" t="s">
-        <v>657</v>
+        <v>702</v>
       </c>
       <c r="E188" t="s">
-        <v>826</v>
+        <v>871</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>658</v>
+        <v>703</v>
       </c>
       <c r="B189" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C189" t="s">
-        <v>659</v>
+        <v>704</v>
       </c>
       <c r="D189" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="E189" t="s">
-        <v>828</v>
+        <v>873</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>660</v>
+        <v>705</v>
       </c>
       <c r="B190" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C190" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="D190" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="E190" t="s">
-        <v>830</v>
+        <v>875</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="B191" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C191" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="D191" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="E191" t="s">
-        <v>836</v>
+        <v>881</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="B192" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C192" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="D192" t="s">
-        <v>668</v>
+        <v>713</v>
       </c>
       <c r="E192" t="s">
-        <v>837</v>
+        <v>882</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>669</v>
+        <v>714</v>
       </c>
       <c r="B193" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C193" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
       <c r="D193" t="s">
-        <v>671</v>
+        <v>716</v>
       </c>
       <c r="E193" t="s">
-        <v>838</v>
+        <v>883</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="B194" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C194" t="s">
-        <v>673</v>
+        <v>718</v>
       </c>
       <c r="D194" t="s">
-        <v>674</v>
+        <v>719</v>
       </c>
       <c r="E194" t="s">
-        <v>839</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>675</v>
+        <v>720</v>
       </c>
       <c r="B195" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C195" t="s">
-        <v>676</v>
+        <v>721</v>
       </c>
       <c r="D195" t="s">
-        <v>677</v>
+        <v>722</v>
       </c>
       <c r="E195" t="s">
-        <v>840</v>
+        <v>885</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>678</v>
+        <v>723</v>
       </c>
       <c r="B196" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C196" t="s">
-        <v>679</v>
+        <v>724</v>
       </c>
       <c r="D196" t="s">
-        <v>680</v>
+        <v>725</v>
       </c>
       <c r="E196" t="s">
-        <v>841</v>
+        <v>886</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="B197" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C197" t="s">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="D197" t="s">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="E197" t="s">
-        <v>842</v>
+        <v>887</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>684</v>
+        <v>729</v>
       </c>
       <c r="B198" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C198" t="s">
-        <v>685</v>
+        <v>730</v>
       </c>
       <c r="D198" t="s">
-        <v>686</v>
+        <v>731</v>
       </c>
       <c r="E198" t="s">
-        <v>843</v>
+        <v>888</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>687</v>
+        <v>732</v>
       </c>
       <c r="B199" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C199" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="D199" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
       <c r="E199" t="s">
-        <v>844</v>
+        <v>889</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="B200" t="s">
-        <v>610</v>
+        <v>655</v>
       </c>
       <c r="C200" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="D200" t="s">
-        <v>692</v>
+        <v>737</v>
       </c>
       <c r="E200" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
       <c r="B201" t="s">
-        <v>606</v>
+        <v>651</v>
       </c>
       <c r="C201" t="s">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="D201" t="s">
-        <v>695</v>
+        <v>740</v>
       </c>
       <c r="E201" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>696</v>
+        <v>741</v>
       </c>
       <c r="B202" t="s">
-        <v>697</v>
+        <v>742</v>
       </c>
       <c r="C202" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="D202" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
       <c r="E202" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="B203" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C203" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="D203" t="s">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c r="E203" t="s">
-        <v>848</v>
+        <v>893</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="B204" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C204" t="s">
-        <v>705</v>
+        <v>750</v>
       </c>
       <c r="D204" t="s">
-        <v>706</v>
+        <v>751</v>
       </c>
       <c r="E204" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>707</v>
+        <v>752</v>
       </c>
       <c r="B205" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C205" t="s">
-        <v>708</v>
+        <v>753</v>
       </c>
       <c r="D205" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="E205" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>709</v>
+        <v>754</v>
       </c>
       <c r="B206" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C206" t="s">
-        <v>710</v>
+        <v>755</v>
       </c>
       <c r="D206" t="s">
-        <v>711</v>
+        <v>756</v>
       </c>
       <c r="E206" t="s">
-        <v>850</v>
+        <v>895</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>712</v>
+        <v>757</v>
       </c>
       <c r="B207" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C207" t="s">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="D207" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="E207" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>715</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C208" t="s">
-        <v>716</v>
+        <v>761</v>
       </c>
       <c r="D208" t="s">
-        <v>717</v>
+        <v>762</v>
       </c>
       <c r="E208" t="s">
-        <v>852</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="B209" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C209" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="D209" t="s">
-        <v>720</v>
+        <v>765</v>
       </c>
       <c r="E209" t="s">
-        <v>858</v>
+        <v>903</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>721</v>
+        <v>766</v>
       </c>
       <c r="B210" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C210" t="s">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="D210" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="E210" t="s">
-        <v>859</v>
+        <v>904</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>724</v>
+        <v>769</v>
       </c>
       <c r="B211" t="s">
         <v>260</v>
       </c>
       <c r="C211" t="s">
-        <v>725</v>
+        <v>770</v>
       </c>
       <c r="D211" t="s">
-        <v>726</v>
+        <v>771</v>
       </c>
       <c r="E211" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>727</v>
+        <v>772</v>
       </c>
       <c r="B212" t="s">
         <v>260</v>
       </c>
       <c r="C212" t="s">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="D212" t="s">
-        <v>726</v>
+        <v>771</v>
       </c>
       <c r="E212" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>729</v>
+        <v>774</v>
       </c>
       <c r="B213" t="s">
         <v>260</v>
       </c>
       <c r="C213" t="s">
-        <v>730</v>
+        <v>775</v>
       </c>
       <c r="D213" t="s">
-        <v>731</v>
+        <v>776</v>
       </c>
       <c r="E213" t="s">
-        <v>854</v>
+        <v>899</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>732</v>
+        <v>777</v>
       </c>
       <c r="B214" t="s">
         <v>260</v>
       </c>
       <c r="C214" t="s">
-        <v>733</v>
+        <v>778</v>
       </c>
       <c r="D214" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="E214" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="B215" t="s">
         <v>260</v>
       </c>
       <c r="C215" t="s">
-        <v>736</v>
+        <v>781</v>
       </c>
       <c r="D215" t="s">
-        <v>737</v>
+        <v>782</v>
       </c>
       <c r="E215" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>738</v>
+        <v>783</v>
       </c>
       <c r="B216" t="s">
         <v>260</v>
       </c>
       <c r="C216" t="s">
-        <v>739</v>
+        <v>784</v>
       </c>
       <c r="D216" t="s">
-        <v>740</v>
+        <v>785</v>
       </c>
       <c r="E216" t="s">
-        <v>852</v>
+        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>741</v>
+        <v>786</v>
       </c>
       <c r="B217" t="s">
         <v>260</v>
       </c>
       <c r="C217" t="s">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="D217" t="s">
-        <v>743</v>
+        <v>788</v>
       </c>
       <c r="E217" t="s">
-        <v>856</v>
+        <v>901</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>744</v>
+        <v>789</v>
       </c>
       <c r="B218" t="s">
         <v>260</v>
       </c>
       <c r="C218" t="s">
-        <v>745</v>
+        <v>790</v>
       </c>
       <c r="D218" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="E218" t="s">
-        <v>858</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="B219" t="s">
         <v>260</v>
       </c>
       <c r="C219" t="s">
-        <v>748</v>
+        <v>793</v>
       </c>
       <c r="D219" t="s">
-        <v>749</v>
+        <v>794</v>
       </c>
       <c r="E219" t="s">
-        <v>857</v>
+        <v>902</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>750</v>
+        <v>795</v>
       </c>
       <c r="B220" t="s">
         <v>260</v>
       </c>
       <c r="C220" t="s">
-        <v>751</v>
+        <v>796</v>
       </c>
       <c r="D220" t="s">
-        <v>723</v>
+        <v>768</v>
       </c>
       <c r="E220" t="s">
-        <v>859</v>
+        <v>904</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>752</v>
+        <v>797</v>
       </c>
       <c r="B221" t="s">
         <v>260</v>
       </c>
       <c r="C221" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="D221" t="s">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="E221" t="s">
-        <v>860</v>
+        <v>905</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>755</v>
+        <v>800</v>
       </c>
       <c r="B222" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C222" t="s">
-        <v>756</v>
+        <v>801</v>
       </c>
       <c r="D222" t="s">
-        <v>757</v>
+        <v>802</v>
       </c>
       <c r="E222" t="s">
-        <v>862</v>
+        <v>907</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>758</v>
+        <v>803</v>
       </c>
       <c r="B223" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C223" t="s">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="D223" t="s">
-        <v>760</v>
+        <v>805</v>
       </c>
       <c r="E223" t="s">
-        <v>861</v>
+        <v>906</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="B224" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C224" t="s">
-        <v>762</v>
+        <v>807</v>
       </c>
       <c r="D224" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="E224" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>763</v>
+        <v>808</v>
       </c>
       <c r="B225" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C225" t="s">
-        <v>764</v>
+        <v>809</v>
       </c>
       <c r="D225" t="s">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="E225" t="s">
-        <v>863</v>
+        <v>908</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>766</v>
+        <v>811</v>
       </c>
       <c r="B226" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C226" t="s">
-        <v>767</v>
+        <v>812</v>
       </c>
       <c r="D226" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="E226" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>768</v>
+        <v>813</v>
       </c>
       <c r="B227" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C227" t="s">
-        <v>769</v>
+        <v>814</v>
       </c>
       <c r="D227" t="s">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="E227" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>770</v>
+        <v>815</v>
       </c>
       <c r="B228" t="s">
         <v>260</v>
       </c>
       <c r="C228" t="s">
-        <v>771</v>
+        <v>816</v>
       </c>
       <c r="D228" t="s">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="E228" t="s">
-        <v>864</v>
+        <v>909</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>773</v>
+        <v>818</v>
       </c>
       <c r="B229" t="s">
         <v>260</v>
       </c>
       <c r="C229" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="D229" t="s">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="E229" t="s">
-        <v>866</v>
+        <v>911</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="B230" t="s">
         <v>260</v>
       </c>
       <c r="C230" t="s">
-        <v>777</v>
+        <v>822</v>
       </c>
       <c r="D230" t="s">
-        <v>778</v>
+        <v>823</v>
       </c>
       <c r="E230" t="s">
-        <v>865</v>
+        <v>910</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>779</v>
+        <v>824</v>
       </c>
       <c r="B231" t="s">
         <v>260</v>
       </c>
       <c r="C231" t="s">
-        <v>780</v>
+        <v>825</v>
       </c>
       <c r="D231" t="s">
-        <v>734</v>
+        <v>779</v>
       </c>
       <c r="E231" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>781</v>
+        <v>826</v>
       </c>
       <c r="B232" t="s">
         <v>260</v>
       </c>
       <c r="C232" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="D232" t="s">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c r="E232" t="s">
-        <v>867</v>
+        <v>912</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>784</v>
+        <v>829</v>
       </c>
       <c r="B233" t="s">
         <v>260</v>
       </c>
       <c r="C233" t="s">
-        <v>785</v>
+        <v>830</v>
       </c>
       <c r="D233" t="s">
-        <v>786</v>
+        <v>831</v>
       </c>
       <c r="E233" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>787</v>
+        <v>832</v>
       </c>
       <c r="B234" t="s">
         <v>260</v>
       </c>
       <c r="C234" t="s">
-        <v>788</v>
+        <v>833</v>
       </c>
       <c r="D234" t="s">
-        <v>789</v>
+        <v>834</v>
       </c>
       <c r="E234" t="s">
-        <v>868</v>
+        <v>913</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>790</v>
+        <v>835</v>
       </c>
       <c r="B235" t="s">
-        <v>791</v>
+        <v>836</v>
       </c>
       <c r="C235" t="s">
-        <v>792</v>
+        <v>837</v>
       </c>
       <c r="D235" t="s">
-        <v>793</v>
+        <v>838</v>
       </c>
       <c r="E235" t="s">
-        <v>869</v>
+        <v>914</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>794</v>
+        <v>839</v>
       </c>
       <c r="B236" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C236" t="s">
-        <v>796</v>
+        <v>841</v>
       </c>
       <c r="D236" t="s">
-        <v>797</v>
+        <v>842</v>
       </c>
       <c r="E236" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>798</v>
+        <v>843</v>
       </c>
       <c r="B237" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C237" t="s">
-        <v>799</v>
+        <v>844</v>
       </c>
       <c r="D237" t="s">
-        <v>800</v>
+        <v>845</v>
       </c>
       <c r="E237" t="s">
-        <v>871</v>
+        <v>916</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>801</v>
+        <v>846</v>
       </c>
       <c r="B238" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C238" t="s">
-        <v>802</v>
+        <v>847</v>
       </c>
       <c r="D238" t="s">
-        <v>803</v>
+        <v>848</v>
       </c>
       <c r="E238" t="s">
-        <v>872</v>
+        <v>917</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>804</v>
+        <v>849</v>
       </c>
       <c r="B239" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C239" t="s">
-        <v>805</v>
+        <v>850</v>
       </c>
       <c r="D239" t="s">
-        <v>806</v>
+        <v>851</v>
       </c>
       <c r="E239" t="s">
-        <v>873</v>
+        <v>918</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>807</v>
+        <v>852</v>
       </c>
       <c r="B240" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C240" t="s">
-        <v>808</v>
+        <v>853</v>
       </c>
       <c r="D240" t="s">
-        <v>809</v>
+        <v>854</v>
       </c>
       <c r="E240" t="s">
-        <v>874</v>
+        <v>919</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>810</v>
+        <v>855</v>
       </c>
       <c r="B241" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C241" t="s">
-        <v>811</v>
+        <v>856</v>
       </c>
       <c r="D241" t="s">
-        <v>812</v>
+        <v>857</v>
       </c>
       <c r="E241" t="s">
-        <v>875</v>
+        <v>920</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="B242" t="s">
-        <v>795</v>
+        <v>840</v>
       </c>
       <c r="C242" t="s">
-        <v>814</v>
+        <v>859</v>
       </c>
       <c r="D242" t="s">
-        <v>815</v>
+        <v>860</v>
       </c>
       <c r="E242" t="s">
-        <v>876</v>
+        <v>921</v>
       </c>
     </row>
   </sheetData>
